--- a/exe/TSV/Excel/W01_館浜駅_UIList.xlsx
+++ b/exe/TSV/Excel/W01_館浜駅_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDE9238-3AA5-4DB3-95B9-F1A7CC70F135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A3B0AD-0D10-4697-84AE-CB803784C500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="4635" windowWidth="24345" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8580" yWindow="5625" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W01_館浜駅_UIList" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="250">
   <si>
     <t>Type</t>
   </si>
@@ -546,25 +546,25 @@
     <t>S</t>
   </si>
   <si>
-    <t>1R_Y</t>
-  </si>
-  <si>
-    <t>Image/Light/N.png,Image/Light/Y.png</t>
+    <t>1R_G</t>
+  </si>
+  <si>
+    <t>Image/Light/N.png,Image/Light/G.png</t>
   </si>
   <si>
     <t>Y,Gは灯色</t>
   </si>
   <si>
-    <t>2R_Y</t>
-  </si>
-  <si>
-    <t>3R_Y</t>
-  </si>
-  <si>
-    <t>4R_Y</t>
-  </si>
-  <si>
-    <t>5L_Y</t>
+    <t>2R_G</t>
+  </si>
+  <si>
+    <t>3R_G</t>
+  </si>
+  <si>
+    <t>4R_G</t>
+  </si>
+  <si>
+    <t>5L_G</t>
   </si>
   <si>
     <t>P21</t>
@@ -582,67 +582,70 @@
     <t>転てつ器単独てこはNCR</t>
   </si>
   <si>
-    <t>P21_G</t>
-  </si>
-  <si>
-    <t>Image/Light/N.png,Image/Light/G.png</t>
-  </si>
-  <si>
-    <t>P21_Y</t>
+    <t>P21_PG</t>
+  </si>
+  <si>
+    <t>Image/Light/N.png,Image/Light/PG.png</t>
+  </si>
+  <si>
+    <t>P21_PY</t>
+  </si>
+  <si>
+    <t>Image/Light/N.png,Image/Light/PY.png</t>
   </si>
   <si>
     <t>P22</t>
   </si>
   <si>
-    <t>P22_G</t>
-  </si>
-  <si>
-    <t>P22_Y</t>
+    <t>P22_PG</t>
+  </si>
+  <si>
+    <t>P22_PY</t>
   </si>
   <si>
     <t>P23</t>
   </si>
   <si>
-    <t>P23_G</t>
-  </si>
-  <si>
-    <t>P23_Y</t>
+    <t>P23_PG</t>
+  </si>
+  <si>
+    <t>P23_PY</t>
   </si>
   <si>
     <t>P24</t>
   </si>
   <si>
-    <t>P24_G</t>
-  </si>
-  <si>
-    <t>P24_Y</t>
+    <t>P24_PG</t>
+  </si>
+  <si>
+    <t>P24_PY</t>
   </si>
   <si>
     <t>P25</t>
   </si>
   <si>
-    <t>P25_G</t>
-  </si>
-  <si>
-    <t>P25_Y</t>
+    <t>P25_PG</t>
+  </si>
+  <si>
+    <t>P25_PY</t>
   </si>
   <si>
     <t>P26</t>
   </si>
   <si>
-    <t>P26_G</t>
-  </si>
-  <si>
-    <t>P26_Y</t>
+    <t>P26_PG</t>
+  </si>
+  <si>
+    <t>P26_PY</t>
   </si>
   <si>
     <t>P27</t>
   </si>
   <si>
-    <t>P27_G</t>
-  </si>
-  <si>
-    <t>P27_Y</t>
+    <t>P27_PG</t>
+  </si>
+  <si>
+    <t>P27_PY</t>
   </si>
   <si>
     <t>KeyImage</t>
@@ -663,10 +666,10 @@
     <t>駅扱切換はLR</t>
   </si>
   <si>
-    <t>駅扱切換_G</t>
-  </si>
-  <si>
-    <t>駅扱切換_Y</t>
+    <t>駅扱切換_PG</t>
+  </si>
+  <si>
+    <t>駅扱切換_PY</t>
   </si>
   <si>
     <t>5LAT_1</t>
@@ -675,7 +678,7 @@
     <t>0,1,2</t>
   </si>
   <si>
-    <t>Image/Light/0N.png,Image/Light/0G.png,Image/Light/0R.png</t>
+    <t>Image/Light/0N.png,Image/Light/0Y.png,Image/Light/0R.png</t>
   </si>
   <si>
     <t>0度※以下0度省略</t>
@@ -708,7 +711,7 @@
     <t>21イT_P21イN_2</t>
   </si>
   <si>
-    <t>Image/Light/45N.png,Image/Light/45G.png,Image/Light/45R.png</t>
+    <t>Image/Light/45N.png,Image/Light/45Y.png,Image/Light/45R.png</t>
   </si>
   <si>
     <t>45度</t>
@@ -720,7 +723,7 @@
     <t>21イT_P21イR_2</t>
   </si>
   <si>
-    <t>Image/Light/135N.png,Image/Light/135G.png,Image/Light/135R.png</t>
+    <t>Image/Light/135N.png,Image/Light/135Y.png,Image/Light/135R.png</t>
   </si>
   <si>
     <t>135度</t>
@@ -774,7 +777,7 @@
     <t>24イT_P24イR_P23N_2</t>
   </si>
   <si>
-    <t>Image/Light/90N.png,Image/Light/90G.png,Image/Light/90R.png</t>
+    <t>Image/Light/90N.png,Image/Light/90Y.png,Image/Light/90R.png</t>
   </si>
   <si>
     <t>90度</t>
@@ -870,7 +873,7 @@
     <t>TH75_41イT_P41イR_2</t>
   </si>
   <si>
-    <t>Image/Light/68N.png,Image/Light/68G.png,Image/Light/68R.png</t>
+    <t>Image/Light/68N.png,Image/Light/68Y.png,Image/Light/68R.png</t>
   </si>
   <si>
     <t>68度</t>
@@ -927,7 +930,7 @@
     <t>TH75_44T_P44イR_P45ロN_2</t>
   </si>
   <si>
-    <t>Image/Light/112N.png,Image/Light/112G.png,Image/Light/112R.png</t>
+    <t>Image/Light/112N.png,Image/Light/112Y.png,Image/Light/112R.png</t>
   </si>
   <si>
     <t>112度</t>
@@ -2249,7 +2252,7 @@
         <v>35</v>
       </c>
       <c r="R16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="6"/>
       <c r="T16" s="4" t="s">
@@ -2296,7 +2299,7 @@
         <v>35</v>
       </c>
       <c r="R17" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="6"/>
       <c r="T17" s="4" t="s">
@@ -2325,7 +2328,7 @@
         <v>489</v>
       </c>
       <c r="F18" s="5">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2341,7 +2344,7 @@
         <v>35</v>
       </c>
       <c r="R18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="6"/>
       <c r="T18" s="4" t="s">
@@ -2386,7 +2389,7 @@
         <v>35</v>
       </c>
       <c r="R19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="6"/>
       <c r="T19" s="4" t="s">
@@ -2431,7 +2434,7 @@
         <v>35</v>
       </c>
       <c r="R20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="6"/>
       <c r="T20" s="4" t="s">
@@ -2527,7 +2530,7 @@
         <v>35</v>
       </c>
       <c r="R22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" s="6"/>
       <c r="T22" s="4" t="s">
@@ -2572,11 +2575,11 @@
         <v>35</v>
       </c>
       <c r="R23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="6"/>
       <c r="T23" s="4" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
@@ -2593,7 +2596,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -2613,7 +2616,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
       <c r="P24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q24" s="5" t="s">
         <v>62</v>
@@ -2642,7 +2645,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -2666,7 +2669,7 @@
         <v>35</v>
       </c>
       <c r="R25" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="6"/>
       <c r="T25" s="4" t="s">
@@ -2687,7 +2690,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -2711,11 +2714,11 @@
         <v>35</v>
       </c>
       <c r="R26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="6"/>
       <c r="T26" s="4" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
@@ -2732,7 +2735,7 @@
         <v>33</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -2752,7 +2755,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
       <c r="P27" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q27" s="5" t="s">
         <v>62</v>
@@ -2781,7 +2784,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -2805,7 +2808,7 @@
         <v>35</v>
       </c>
       <c r="R28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="6"/>
       <c r="T28" s="4" t="s">
@@ -2826,7 +2829,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -2850,11 +2853,11 @@
         <v>35</v>
       </c>
       <c r="R29" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="6"/>
       <c r="T29" s="4" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
@@ -2871,7 +2874,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -2891,7 +2894,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
       <c r="P30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="5" t="s">
         <v>62</v>
@@ -2920,7 +2923,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -2944,7 +2947,7 @@
         <v>35</v>
       </c>
       <c r="R31" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="6"/>
       <c r="T31" s="4" t="s">
@@ -2965,7 +2968,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2989,11 +2992,11 @@
         <v>35</v>
       </c>
       <c r="R32" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32" s="6"/>
       <c r="T32" s="4" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
@@ -3010,7 +3013,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -3030,7 +3033,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q33" s="5" t="s">
         <v>62</v>
@@ -3059,7 +3062,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3083,7 +3086,7 @@
         <v>35</v>
       </c>
       <c r="R34" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34" s="6"/>
       <c r="T34" s="4" t="s">
@@ -3104,7 +3107,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -3128,11 +3131,11 @@
         <v>35</v>
       </c>
       <c r="R35" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="6"/>
       <c r="T35" s="4" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
@@ -3149,7 +3152,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -3169,7 +3172,7 @@
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q36" s="5" t="s">
         <v>62</v>
@@ -3198,7 +3201,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -3222,7 +3225,7 @@
         <v>35</v>
       </c>
       <c r="R37" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="6"/>
       <c r="T37" s="4" t="s">
@@ -3243,7 +3246,7 @@
         <v>24</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -3267,11 +3270,11 @@
         <v>35</v>
       </c>
       <c r="R38" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38" s="6"/>
       <c r="T38" s="4" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
@@ -3288,7 +3291,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -3308,7 +3311,7 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q39" s="5" t="s">
         <v>62</v>
@@ -3337,7 +3340,7 @@
         <v>24</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -3361,7 +3364,7 @@
         <v>35</v>
       </c>
       <c r="R40" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="6"/>
       <c r="T40" s="4" t="s">
@@ -3382,7 +3385,7 @@
         <v>24</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -3406,11 +3409,11 @@
         <v>35</v>
       </c>
       <c r="R41" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="6"/>
       <c r="T41" s="4" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
@@ -3424,10 +3427,10 @@
     </row>
     <row r="42" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -3447,22 +3450,22 @@
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R42" s="5">
         <v>1</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
@@ -3478,7 +3481,7 @@
         <v>24</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -3502,7 +3505,7 @@
         <v>35</v>
       </c>
       <c r="R43" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43" s="6"/>
       <c r="T43" s="4" t="s">
@@ -3523,7 +3526,7 @@
         <v>24</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -3547,11 +3550,11 @@
         <v>35</v>
       </c>
       <c r="R44" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44" s="6"/>
       <c r="T44" s="4" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
@@ -3568,7 +3571,7 @@
         <v>24</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -3589,17 +3592,17 @@
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R45" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" s="6"/>
       <c r="T45" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U45" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
@@ -3615,7 +3618,7 @@
         <v>24</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -3636,14 +3639,14 @@
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R46" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" s="6"/>
       <c r="T46" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
@@ -3660,7 +3663,7 @@
         <v>24</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -3681,14 +3684,14 @@
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R47" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" s="6"/>
       <c r="T47" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
@@ -3705,7 +3708,7 @@
         <v>24</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -3726,14 +3729,14 @@
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R48" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" s="6"/>
       <c r="T48" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
@@ -3750,7 +3753,7 @@
         <v>24</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -3771,14 +3774,14 @@
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R49" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" s="6"/>
       <c r="T49" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
@@ -3795,7 +3798,7 @@
         <v>24</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -3816,14 +3819,14 @@
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R50" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" s="6"/>
       <c r="T50" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
@@ -3840,7 +3843,7 @@
         <v>24</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -3861,14 +3864,14 @@
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R51" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" s="6"/>
       <c r="T51" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
@@ -3885,7 +3888,7 @@
         <v>24</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -3906,14 +3909,14 @@
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R52" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" s="6"/>
       <c r="T52" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
@@ -3930,7 +3933,7 @@
         <v>24</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -3951,14 +3954,14 @@
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R53" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" s="6"/>
       <c r="T53" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
@@ -3975,7 +3978,7 @@
         <v>24</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -3996,17 +3999,17 @@
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R54" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" s="6"/>
       <c r="T54" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U54" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
@@ -4022,7 +4025,7 @@
         <v>24</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -4043,14 +4046,14 @@
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R55" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55" s="6"/>
       <c r="T55" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
@@ -4067,7 +4070,7 @@
         <v>24</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -4088,17 +4091,17 @@
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R56" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56" s="6"/>
       <c r="T56" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="U56" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
@@ -4114,7 +4117,7 @@
         <v>24</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -4135,17 +4138,17 @@
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R57" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57" s="6"/>
       <c r="T57" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="U57" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
@@ -4161,7 +4164,7 @@
         <v>24</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -4182,14 +4185,14 @@
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R58" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58" s="6"/>
       <c r="T58" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
@@ -4206,7 +4209,7 @@
         <v>24</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -4227,17 +4230,17 @@
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R59" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S59" s="6"/>
       <c r="T59" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U59" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
@@ -4253,7 +4256,7 @@
         <v>24</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -4274,14 +4277,14 @@
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R60" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" s="6"/>
       <c r="T60" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
@@ -4298,7 +4301,7 @@
         <v>24</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -4319,14 +4322,14 @@
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R61" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S61" s="6"/>
       <c r="T61" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
@@ -4343,7 +4346,7 @@
         <v>24</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -4364,17 +4367,17 @@
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R62" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62" s="6"/>
       <c r="T62" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U62" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
@@ -4390,7 +4393,7 @@
         <v>24</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -4411,14 +4414,14 @@
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R63" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S63" s="6"/>
       <c r="T63" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
@@ -4435,7 +4438,7 @@
         <v>24</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -4456,17 +4459,17 @@
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
       <c r="Q64" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R64" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" s="6"/>
       <c r="T64" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="U64" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
@@ -4482,7 +4485,7 @@
         <v>24</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -4503,14 +4506,14 @@
       <c r="O65" s="5"/>
       <c r="P65" s="5"/>
       <c r="Q65" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R65" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65" s="6"/>
       <c r="T65" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
@@ -4527,7 +4530,7 @@
         <v>24</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -4548,14 +4551,14 @@
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
       <c r="Q66" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R66" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S66" s="6"/>
       <c r="T66" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
@@ -4572,7 +4575,7 @@
         <v>24</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -4593,14 +4596,14 @@
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
       <c r="Q67" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R67" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67" s="6"/>
       <c r="T67" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
@@ -4617,7 +4620,7 @@
         <v>24</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -4638,17 +4641,17 @@
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R68" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68" s="6"/>
       <c r="T68" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U68" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
@@ -4664,7 +4667,7 @@
         <v>24</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -4685,17 +4688,17 @@
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
       <c r="Q69" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R69" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69" s="6"/>
       <c r="T69" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U69" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
@@ -4711,7 +4714,7 @@
         <v>24</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -4732,17 +4735,17 @@
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
       <c r="Q70" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R70" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70" s="6"/>
       <c r="T70" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U70" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
@@ -4758,7 +4761,7 @@
         <v>24</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -4779,17 +4782,17 @@
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
       <c r="Q71" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R71" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S71" s="6"/>
       <c r="T71" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U71" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
@@ -4805,7 +4808,7 @@
         <v>24</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -4826,17 +4829,17 @@
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
       <c r="Q72" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R72" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72" s="6"/>
       <c r="T72" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U72" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
@@ -4852,7 +4855,7 @@
         <v>24</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -4873,17 +4876,17 @@
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
       <c r="Q73" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R73" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S73" s="6"/>
       <c r="T73" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U73" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
@@ -4899,7 +4902,7 @@
         <v>24</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -4920,17 +4923,17 @@
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
       <c r="Q74" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R74" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S74" s="6"/>
       <c r="T74" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U74" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
@@ -4946,7 +4949,7 @@
         <v>24</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -4967,17 +4970,17 @@
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R75" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S75" s="6"/>
       <c r="T75" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U75" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
@@ -4993,7 +4996,7 @@
         <v>24</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -5014,17 +5017,17 @@
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R76" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S76" s="6"/>
       <c r="T76" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U76" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
@@ -5040,7 +5043,7 @@
         <v>24</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -5061,14 +5064,14 @@
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
       <c r="Q77" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R77" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S77" s="6"/>
       <c r="T77" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
@@ -5085,7 +5088,7 @@
         <v>24</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -5106,14 +5109,14 @@
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
       <c r="Q78" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R78" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S78" s="6"/>
       <c r="T78" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
@@ -5130,7 +5133,7 @@
         <v>24</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -5151,17 +5154,17 @@
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
       <c r="Q79" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R79" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S79" s="6"/>
       <c r="T79" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U79" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
@@ -5177,7 +5180,7 @@
         <v>24</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -5198,17 +5201,17 @@
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
       <c r="Q80" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R80" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S80" s="6"/>
       <c r="T80" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U80" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
@@ -5224,7 +5227,7 @@
         <v>24</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -5245,14 +5248,14 @@
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
       <c r="Q81" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R81" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S81" s="6"/>
       <c r="T81" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
@@ -5269,7 +5272,7 @@
         <v>24</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -5290,14 +5293,14 @@
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
       <c r="Q82" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R82" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S82" s="6"/>
       <c r="T82" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
@@ -5314,7 +5317,7 @@
         <v>24</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -5335,14 +5338,14 @@
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R83" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S83" s="6"/>
       <c r="T83" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
@@ -5359,7 +5362,7 @@
         <v>24</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -5380,14 +5383,14 @@
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
       <c r="Q84" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R84" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S84" s="6"/>
       <c r="T84" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
@@ -5404,7 +5407,7 @@
         <v>24</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -5425,14 +5428,14 @@
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
       <c r="Q85" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R85" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S85" s="6"/>
       <c r="T85" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
@@ -5449,7 +5452,7 @@
         <v>24</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -5470,14 +5473,14 @@
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
       <c r="Q86" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R86" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S86" s="6"/>
       <c r="T86" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U86" s="4"/>
       <c r="V86" s="4"/>
@@ -5494,7 +5497,7 @@
         <v>24</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -5515,17 +5518,17 @@
       <c r="O87" s="5"/>
       <c r="P87" s="5"/>
       <c r="Q87" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R87" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S87" s="6"/>
       <c r="T87" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U87" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
@@ -5541,7 +5544,7 @@
         <v>24</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -5562,17 +5565,17 @@
       <c r="O88" s="5"/>
       <c r="P88" s="5"/>
       <c r="Q88" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R88" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S88" s="6"/>
       <c r="T88" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U88" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
@@ -5588,7 +5591,7 @@
         <v>24</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -5609,14 +5612,14 @@
       <c r="O89" s="5"/>
       <c r="P89" s="5"/>
       <c r="Q89" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R89" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S89" s="6"/>
       <c r="T89" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U89" s="4"/>
       <c r="V89" s="4"/>
@@ -5633,12 +5636,12 @@
         <v>24</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F90" s="5">
         <v>296</v>
@@ -5654,14 +5657,14 @@
       <c r="O90" s="5"/>
       <c r="P90" s="5"/>
       <c r="Q90" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R90" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S90" s="6"/>
       <c r="T90" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
@@ -5678,7 +5681,7 @@
         <v>24</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -5699,14 +5702,14 @@
       <c r="O91" s="5"/>
       <c r="P91" s="5"/>
       <c r="Q91" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R91" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S91" s="6"/>
       <c r="T91" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U91" s="4"/>
       <c r="V91" s="4"/>
@@ -5723,7 +5726,7 @@
         <v>24</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -5744,17 +5747,17 @@
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
       <c r="Q92" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R92" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S92" s="6"/>
       <c r="T92" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U92" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
@@ -5770,7 +5773,7 @@
         <v>24</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -5791,14 +5794,14 @@
       <c r="O93" s="5"/>
       <c r="P93" s="5"/>
       <c r="Q93" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S93" s="6"/>
       <c r="T93" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U93" s="4"/>
       <c r="V93" s="4"/>
@@ -5815,7 +5818,7 @@
         <v>24</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -5836,14 +5839,14 @@
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
       <c r="Q94" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R94" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S94" s="6"/>
       <c r="T94" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U94" s="4"/>
       <c r="V94" s="4"/>
@@ -5860,7 +5863,7 @@
         <v>24</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -5881,14 +5884,14 @@
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
       <c r="Q95" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R95" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S95" s="6"/>
       <c r="T95" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
@@ -5905,7 +5908,7 @@
         <v>24</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -5926,14 +5929,14 @@
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
       <c r="Q96" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R96" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S96" s="6"/>
       <c r="T96" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U96" s="4"/>
       <c r="V96" s="4"/>
@@ -5950,7 +5953,7 @@
         <v>24</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -5971,14 +5974,14 @@
       <c r="O97" s="5"/>
       <c r="P97" s="5"/>
       <c r="Q97" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R97" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S97" s="6"/>
       <c r="T97" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U97" s="4"/>
       <c r="V97" s="4"/>
@@ -5995,7 +5998,7 @@
         <v>24</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -6016,14 +6019,14 @@
       <c r="O98" s="5"/>
       <c r="P98" s="5"/>
       <c r="Q98" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R98" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S98" s="6"/>
       <c r="T98" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U98" s="4"/>
       <c r="V98" s="4"/>
@@ -6040,7 +6043,7 @@
         <v>24</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -6061,14 +6064,14 @@
       <c r="O99" s="5"/>
       <c r="P99" s="5"/>
       <c r="Q99" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R99" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S99" s="6"/>
       <c r="T99" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U99" s="4"/>
       <c r="V99" s="4"/>
@@ -6085,7 +6088,7 @@
         <v>24</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -6106,14 +6109,14 @@
       <c r="O100" s="5"/>
       <c r="P100" s="5"/>
       <c r="Q100" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R100" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S100" s="6"/>
       <c r="T100" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
@@ -6130,7 +6133,7 @@
         <v>24</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
@@ -6151,14 +6154,14 @@
       <c r="O101" s="5"/>
       <c r="P101" s="5"/>
       <c r="Q101" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R101" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S101" s="6"/>
       <c r="T101" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U101" s="4"/>
       <c r="V101" s="4"/>
@@ -6175,7 +6178,7 @@
         <v>24</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -6196,17 +6199,17 @@
       <c r="O102" s="5"/>
       <c r="P102" s="5"/>
       <c r="Q102" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R102" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S102" s="6"/>
       <c r="T102" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U102" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
@@ -6222,7 +6225,7 @@
         <v>24</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -6243,17 +6246,17 @@
       <c r="O103" s="5"/>
       <c r="P103" s="5"/>
       <c r="Q103" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R103" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S103" s="6"/>
       <c r="T103" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U103" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
@@ -6269,7 +6272,7 @@
         <v>24</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -6290,14 +6293,14 @@
       <c r="O104" s="5"/>
       <c r="P104" s="5"/>
       <c r="Q104" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R104" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S104" s="6"/>
       <c r="T104" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U104" s="4"/>
       <c r="V104" s="4"/>
@@ -6314,7 +6317,7 @@
         <v>24</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -6335,14 +6338,14 @@
       <c r="O105" s="5"/>
       <c r="P105" s="5"/>
       <c r="Q105" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R105" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S105" s="6"/>
       <c r="T105" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U105" s="4"/>
       <c r="V105" s="4"/>
@@ -6359,7 +6362,7 @@
         <v>24</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -6380,14 +6383,14 @@
       <c r="O106" s="5"/>
       <c r="P106" s="5"/>
       <c r="Q106" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R106" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S106" s="6"/>
       <c r="T106" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U106" s="4"/>
       <c r="V106" s="4"/>
@@ -6404,7 +6407,7 @@
         <v>24</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -6425,14 +6428,14 @@
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
       <c r="Q107" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R107" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S107" s="6"/>
       <c r="T107" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U107" s="4"/>
       <c r="V107" s="4"/>
@@ -6449,7 +6452,7 @@
         <v>24</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -6470,14 +6473,14 @@
       <c r="O108" s="5"/>
       <c r="P108" s="5"/>
       <c r="Q108" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R108" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S108" s="6"/>
       <c r="T108" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U108" s="4"/>
       <c r="V108" s="4"/>
@@ -6494,7 +6497,7 @@
         <v>24</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -6515,14 +6518,14 @@
       <c r="O109" s="5"/>
       <c r="P109" s="5"/>
       <c r="Q109" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R109" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S109" s="6"/>
       <c r="T109" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U109" s="4"/>
       <c r="V109" s="4"/>
@@ -6539,7 +6542,7 @@
         <v>24</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -6560,17 +6563,17 @@
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
       <c r="Q110" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R110" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S110" s="6"/>
       <c r="T110" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U110" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
@@ -6586,7 +6589,7 @@
         <v>24</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -6607,17 +6610,17 @@
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
       <c r="Q111" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R111" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S111" s="6"/>
       <c r="T111" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U111" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
@@ -6633,7 +6636,7 @@
         <v>24</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -6654,14 +6657,14 @@
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
       <c r="Q112" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R112" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S112" s="6"/>
       <c r="T112" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U112" s="4"/>
       <c r="V112" s="4"/>
@@ -6678,7 +6681,7 @@
         <v>24</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -6699,14 +6702,14 @@
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
       <c r="Q113" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R113" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S113" s="6"/>
       <c r="T113" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U113" s="4"/>
       <c r="V113" s="4"/>
@@ -6723,7 +6726,7 @@
         <v>24</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -6744,14 +6747,14 @@
       <c r="O114" s="5"/>
       <c r="P114" s="5"/>
       <c r="Q114" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R114" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S114" s="6"/>
       <c r="T114" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U114" s="4"/>
       <c r="V114" s="4"/>
@@ -6768,7 +6771,7 @@
         <v>24</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -6789,14 +6792,14 @@
       <c r="O115" s="5"/>
       <c r="P115" s="5"/>
       <c r="Q115" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R115" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S115" s="6"/>
       <c r="T115" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U115" s="4"/>
       <c r="V115" s="4"/>
@@ -6813,7 +6816,7 @@
         <v>24</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -6834,14 +6837,14 @@
       <c r="O116" s="5"/>
       <c r="P116" s="5"/>
       <c r="Q116" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R116" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S116" s="6"/>
       <c r="T116" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U116" s="4"/>
       <c r="V116" s="4"/>
@@ -6858,7 +6861,7 @@
         <v>24</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -6879,14 +6882,14 @@
       <c r="O117" s="5"/>
       <c r="P117" s="5"/>
       <c r="Q117" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R117" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S117" s="6"/>
       <c r="T117" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U117" s="4"/>
       <c r="V117" s="4"/>
@@ -6903,7 +6906,7 @@
         <v>24</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
@@ -6924,14 +6927,14 @@
       <c r="O118" s="5"/>
       <c r="P118" s="5"/>
       <c r="Q118" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R118" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S118" s="6"/>
       <c r="T118" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U118" s="4"/>
       <c r="V118" s="4"/>
@@ -6948,7 +6951,7 @@
         <v>24</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -6969,17 +6972,17 @@
       <c r="O119" s="5"/>
       <c r="P119" s="5"/>
       <c r="Q119" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R119" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S119" s="6"/>
       <c r="T119" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U119" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
@@ -6995,7 +6998,7 @@
         <v>24</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -7016,17 +7019,17 @@
       <c r="O120" s="5"/>
       <c r="P120" s="5"/>
       <c r="Q120" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R120" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S120" s="6"/>
       <c r="T120" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U120" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
@@ -7042,7 +7045,7 @@
         <v>24</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -7063,14 +7066,14 @@
       <c r="O121" s="5"/>
       <c r="P121" s="5"/>
       <c r="Q121" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R121" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S121" s="6"/>
       <c r="T121" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U121" s="4"/>
       <c r="V121" s="4"/>
@@ -7087,7 +7090,7 @@
         <v>24</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -7108,14 +7111,14 @@
       <c r="O122" s="5"/>
       <c r="P122" s="5"/>
       <c r="Q122" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R122" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S122" s="6"/>
       <c r="T122" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U122" s="4"/>
       <c r="V122" s="4"/>
@@ -7132,7 +7135,7 @@
         <v>24</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -7153,14 +7156,14 @@
       <c r="O123" s="5"/>
       <c r="P123" s="5"/>
       <c r="Q123" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R123" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S123" s="6"/>
       <c r="T123" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U123" s="4"/>
       <c r="V123" s="4"/>
@@ -7177,7 +7180,7 @@
         <v>24</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -7198,14 +7201,14 @@
       <c r="O124" s="5"/>
       <c r="P124" s="5"/>
       <c r="Q124" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R124" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S124" s="6"/>
       <c r="T124" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U124" s="4"/>
       <c r="V124" s="4"/>
@@ -7222,7 +7225,7 @@
         <v>24</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -7243,14 +7246,14 @@
       <c r="O125" s="5"/>
       <c r="P125" s="5"/>
       <c r="Q125" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R125" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S125" s="6"/>
       <c r="T125" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U125" s="4"/>
       <c r="V125" s="4"/>
@@ -7267,7 +7270,7 @@
         <v>24</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -7288,14 +7291,14 @@
       <c r="O126" s="5"/>
       <c r="P126" s="5"/>
       <c r="Q126" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R126" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S126" s="6"/>
       <c r="T126" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U126" s="4"/>
       <c r="V126" s="4"/>
@@ -7312,7 +7315,7 @@
         <v>24</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -7333,17 +7336,17 @@
       <c r="O127" s="5"/>
       <c r="P127" s="5"/>
       <c r="Q127" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R127" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S127" s="6"/>
       <c r="T127" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U127" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V127" s="4"/>
       <c r="W127" s="4"/>
@@ -7359,7 +7362,7 @@
         <v>24</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -7380,17 +7383,17 @@
       <c r="O128" s="5"/>
       <c r="P128" s="5"/>
       <c r="Q128" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R128" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S128" s="6"/>
       <c r="T128" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U128" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
@@ -7406,7 +7409,7 @@
         <v>24</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -7427,14 +7430,14 @@
       <c r="O129" s="5"/>
       <c r="P129" s="5"/>
       <c r="Q129" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R129" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S129" s="6"/>
       <c r="T129" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U129" s="4"/>
       <c r="V129" s="4"/>
@@ -7451,7 +7454,7 @@
         <v>24</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -7472,14 +7475,14 @@
       <c r="O130" s="5"/>
       <c r="P130" s="5"/>
       <c r="Q130" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R130" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S130" s="6"/>
       <c r="T130" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U130" s="4"/>
       <c r="V130" s="4"/>
@@ -7496,7 +7499,7 @@
         <v>24</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -7517,14 +7520,14 @@
       <c r="O131" s="5"/>
       <c r="P131" s="5"/>
       <c r="Q131" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R131" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S131" s="6"/>
       <c r="T131" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U131" s="4"/>
       <c r="V131" s="4"/>
@@ -7541,7 +7544,7 @@
         <v>24</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -7562,14 +7565,14 @@
       <c r="O132" s="5"/>
       <c r="P132" s="5"/>
       <c r="Q132" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R132" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S132" s="6"/>
       <c r="T132" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U132" s="4"/>
       <c r="V132" s="4"/>
@@ -7586,7 +7589,7 @@
         <v>24</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -7607,14 +7610,14 @@
       <c r="O133" s="5"/>
       <c r="P133" s="5"/>
       <c r="Q133" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R133" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S133" s="6"/>
       <c r="T133" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U133" s="4"/>
       <c r="V133" s="4"/>
@@ -7631,7 +7634,7 @@
         <v>24</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -7652,14 +7655,14 @@
       <c r="O134" s="5"/>
       <c r="P134" s="5"/>
       <c r="Q134" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R134" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S134" s="6"/>
       <c r="T134" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U134" s="4"/>
       <c r="V134" s="4"/>
@@ -7676,7 +7679,7 @@
         <v>24</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -7697,14 +7700,14 @@
       <c r="O135" s="5"/>
       <c r="P135" s="5"/>
       <c r="Q135" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R135" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S135" s="6"/>
       <c r="T135" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U135" s="4"/>
       <c r="V135" s="4"/>
@@ -7721,7 +7724,7 @@
         <v>24</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -7742,14 +7745,14 @@
       <c r="O136" s="5"/>
       <c r="P136" s="5"/>
       <c r="Q136" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R136" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S136" s="6"/>
       <c r="T136" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U136" s="4"/>
       <c r="V136" s="4"/>
@@ -7766,7 +7769,7 @@
         <v>24</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -7787,14 +7790,14 @@
       <c r="O137" s="5"/>
       <c r="P137" s="5"/>
       <c r="Q137" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R137" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S137" s="6"/>
       <c r="T137" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U137" s="4"/>
       <c r="V137" s="4"/>
@@ -7811,7 +7814,7 @@
         <v>24</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -7832,14 +7835,14 @@
       <c r="O138" s="5"/>
       <c r="P138" s="5"/>
       <c r="Q138" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R138" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S138" s="6"/>
       <c r="T138" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U138" s="4"/>
       <c r="V138" s="4"/>
@@ -7856,7 +7859,7 @@
         <v>24</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -7877,14 +7880,14 @@
       <c r="O139" s="5"/>
       <c r="P139" s="5"/>
       <c r="Q139" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R139" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S139" s="6"/>
       <c r="T139" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U139" s="4"/>
       <c r="V139" s="4"/>
@@ -7901,7 +7904,7 @@
         <v>24</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -7922,14 +7925,14 @@
       <c r="O140" s="5"/>
       <c r="P140" s="5"/>
       <c r="Q140" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R140" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S140" s="6"/>
       <c r="T140" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U140" s="4"/>
       <c r="V140" s="4"/>
@@ -7946,7 +7949,7 @@
         <v>24</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -7967,14 +7970,14 @@
       <c r="O141" s="5"/>
       <c r="P141" s="5"/>
       <c r="Q141" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R141" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S141" s="6"/>
       <c r="T141" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U141" s="4"/>
       <c r="V141" s="4"/>
@@ -7991,7 +7994,7 @@
         <v>24</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
@@ -8012,14 +8015,14 @@
       <c r="O142" s="5"/>
       <c r="P142" s="5"/>
       <c r="Q142" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R142" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S142" s="6"/>
       <c r="T142" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U142" s="4"/>
       <c r="V142" s="4"/>
@@ -8036,7 +8039,7 @@
         <v>46</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
@@ -8056,7 +8059,7 @@
       <c r="N143" s="5"/>
       <c r="O143" s="5"/>
       <c r="P143" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q143" s="5" t="s">
         <v>35</v>
@@ -8065,10 +8068,10 @@
         <v>0</v>
       </c>
       <c r="S143" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T143" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="U143" s="4"/>
       <c r="V143" s="4"/>
@@ -8082,10 +8085,10 @@
     </row>
     <row r="144" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -8109,7 +8112,7 @@
       <c r="R144" s="5"/>
       <c r="S144" s="6"/>
       <c r="T144" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U144" s="4"/>
       <c r="V144" s="4"/>
@@ -8123,10 +8126,10 @@
     </row>
     <row r="145" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -8150,7 +8153,7 @@
       <c r="R145" s="5"/>
       <c r="S145" s="6"/>
       <c r="T145" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U145" s="4"/>
       <c r="V145" s="4"/>
@@ -8164,10 +8167,10 @@
     </row>
     <row r="146" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -8191,7 +8194,7 @@
       <c r="R146" s="5"/>
       <c r="S146" s="6"/>
       <c r="T146" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U146" s="4"/>
       <c r="V146" s="4"/>
@@ -8205,10 +8208,10 @@
     </row>
     <row r="147" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -8232,7 +8235,7 @@
       <c r="R147" s="5"/>
       <c r="S147" s="6"/>
       <c r="T147" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U147" s="4"/>
       <c r="V147" s="4"/>
@@ -8246,10 +8249,10 @@
     </row>
     <row r="148" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -8273,7 +8276,7 @@
       <c r="R148" s="5"/>
       <c r="S148" s="6"/>
       <c r="T148" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
@@ -8287,10 +8290,10 @@
     </row>
     <row r="149" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -8314,7 +8317,7 @@
       <c r="R149" s="5"/>
       <c r="S149" s="6"/>
       <c r="T149" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U149" s="4"/>
       <c r="V149" s="4"/>
@@ -8328,10 +8331,10 @@
     </row>
     <row r="150" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -8355,7 +8358,7 @@
       <c r="R150" s="5"/>
       <c r="S150" s="6"/>
       <c r="T150" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U150" s="4"/>
       <c r="V150" s="4"/>
@@ -8369,10 +8372,10 @@
     </row>
     <row r="151" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -8396,7 +8399,7 @@
       <c r="R151" s="5"/>
       <c r="S151" s="6"/>
       <c r="T151" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U151" s="4"/>
       <c r="V151" s="4"/>
@@ -8410,10 +8413,10 @@
     </row>
     <row r="152" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -8437,7 +8440,7 @@
       <c r="R152" s="5"/>
       <c r="S152" s="6"/>
       <c r="T152" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U152" s="4"/>
       <c r="V152" s="4"/>
@@ -8451,10 +8454,10 @@
     </row>
     <row r="153" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -8478,7 +8481,7 @@
       <c r="R153" s="5"/>
       <c r="S153" s="6"/>
       <c r="T153" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U153" s="4"/>
       <c r="V153" s="4"/>
@@ -8495,7 +8498,7 @@
         <v>24</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -8519,14 +8522,14 @@
         <v>35</v>
       </c>
       <c r="R154" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S154" s="6"/>
       <c r="T154" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U154" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="V154" s="4"/>
       <c r="W154" s="4"/>
@@ -8542,7 +8545,7 @@
         <v>24</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -8566,11 +8569,11 @@
         <v>35</v>
       </c>
       <c r="R155" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S155" s="6"/>
       <c r="T155" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U155" s="4"/>
       <c r="V155" s="4"/>
@@ -8587,7 +8590,7 @@
         <v>24</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -8611,11 +8614,11 @@
         <v>35</v>
       </c>
       <c r="R156" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S156" s="6"/>
       <c r="T156" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U156" s="4"/>
       <c r="V156" s="4"/>
@@ -8632,7 +8635,7 @@
         <v>24</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -8656,11 +8659,11 @@
         <v>35</v>
       </c>
       <c r="R157" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S157" s="6"/>
       <c r="T157" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U157" s="4"/>
       <c r="V157" s="4"/>
@@ -8674,26 +8677,26 @@
     </row>
     <row r="158" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E158" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F158" s="5">
         <v>20</v>
       </c>
       <c r="G158" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H158" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
@@ -8705,10 +8708,10 @@
         <v>10</v>
       </c>
       <c r="N158" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O158" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P158" s="5" t="s">
         <v>34</v>
@@ -8729,26 +8732,26 @@
     </row>
     <row r="159" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E159" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F159" s="5">
         <v>20</v>
       </c>
       <c r="G159" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H159" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
@@ -8760,10 +8763,10 @@
         <v>10</v>
       </c>
       <c r="N159" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O159" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P159" s="5" t="s">
         <v>39</v>
@@ -8784,26 +8787,26 @@
     </row>
     <row r="160" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E160" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F160" s="5">
         <v>20</v>
       </c>
       <c r="G160" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H160" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
@@ -8815,10 +8818,10 @@
         <v>10</v>
       </c>
       <c r="N160" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O160" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P160" s="5" t="s">
         <v>40</v>
@@ -8839,26 +8842,26 @@
     </row>
     <row r="161" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E161" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F161" s="5">
         <v>20</v>
       </c>
       <c r="G161" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H161" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
@@ -8870,10 +8873,10 @@
         <v>10</v>
       </c>
       <c r="N161" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O161" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P161" s="5" t="s">
         <v>41</v>
@@ -8894,26 +8897,26 @@
     </row>
     <row r="162" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E162" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F162" s="5">
         <v>20</v>
       </c>
       <c r="G162" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H162" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
@@ -8925,10 +8928,10 @@
         <v>10</v>
       </c>
       <c r="N162" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O162" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P162" s="5" t="s">
         <v>42</v>
@@ -8949,10 +8952,10 @@
     </row>
     <row r="163" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5" t="s">
@@ -8980,10 +8983,10 @@
         <v>10</v>
       </c>
       <c r="N163" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O163" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P163" s="5" t="s">
         <v>47</v>
@@ -9004,10 +9007,10 @@
     </row>
     <row r="164" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5" t="s">
@@ -9035,10 +9038,10 @@
         <v>10</v>
       </c>
       <c r="N164" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O164" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P164" s="5" t="s">
         <v>50</v>
@@ -9059,10 +9062,10 @@
     </row>
     <row r="165" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5" t="s">
@@ -9090,10 +9093,10 @@
         <v>10</v>
       </c>
       <c r="N165" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O165" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P165" s="5" t="s">
         <v>51</v>
@@ -9114,10 +9117,10 @@
     </row>
     <row r="166" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5" t="s">
@@ -9145,10 +9148,10 @@
         <v>10</v>
       </c>
       <c r="N166" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O166" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P166" s="5" t="s">
         <v>52</v>
@@ -9169,10 +9172,10 @@
     </row>
     <row r="167" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5" t="s">
@@ -9200,10 +9203,10 @@
         <v>10</v>
       </c>
       <c r="N167" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O167" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P167" s="5" t="s">
         <v>53</v>
@@ -9224,10 +9227,10 @@
     </row>
     <row r="168" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="10" t="s">
@@ -9240,10 +9243,10 @@
         <v>20</v>
       </c>
       <c r="G168" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H168" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -9255,10 +9258,10 @@
         <v>10</v>
       </c>
       <c r="N168" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O168" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P168" s="10" t="s">
         <v>61</v>
@@ -9279,14 +9282,14 @@
     </row>
     <row r="169" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E169" s="5">
         <v>14</v>
@@ -9295,10 +9298,10 @@
         <v>20</v>
       </c>
       <c r="G169" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H169" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
@@ -9310,13 +9313,13 @@
         <v>10</v>
       </c>
       <c r="N169" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O169" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P169" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q169" s="5"/>
       <c r="R169" s="5"/>
@@ -9334,14 +9337,14 @@
     </row>
     <row r="170" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E170" s="5">
         <v>14</v>
@@ -9350,10 +9353,10 @@
         <v>20</v>
       </c>
       <c r="G170" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H170" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
@@ -9365,13 +9368,13 @@
         <v>10</v>
       </c>
       <c r="N170" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O170" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P170" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q170" s="5"/>
       <c r="R170" s="5"/>
@@ -9389,14 +9392,14 @@
     </row>
     <row r="171" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E171" s="5">
         <v>14</v>
@@ -9405,10 +9408,10 @@
         <v>20</v>
       </c>
       <c r="G171" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H171" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
@@ -9420,13 +9423,13 @@
         <v>10</v>
       </c>
       <c r="N171" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O171" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P171" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q171" s="5"/>
       <c r="R171" s="5"/>
@@ -9444,14 +9447,14 @@
     </row>
     <row r="172" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E172" s="5">
         <v>14</v>
@@ -9460,10 +9463,10 @@
         <v>20</v>
       </c>
       <c r="G172" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H172" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
@@ -9475,13 +9478,13 @@
         <v>10</v>
       </c>
       <c r="N172" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O172" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P172" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q172" s="5"/>
       <c r="R172" s="5"/>
@@ -9499,14 +9502,14 @@
     </row>
     <row r="173" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E173" s="5">
         <v>14</v>
@@ -9515,10 +9518,10 @@
         <v>20</v>
       </c>
       <c r="G173" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H173" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
@@ -9530,13 +9533,13 @@
         <v>10</v>
       </c>
       <c r="N173" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O173" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P173" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q173" s="5"/>
       <c r="R173" s="5"/>
@@ -9554,14 +9557,14 @@
     </row>
     <row r="174" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E174" s="5">
         <v>14</v>
@@ -9570,10 +9573,10 @@
         <v>20</v>
       </c>
       <c r="G174" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H174" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
@@ -9585,13 +9588,13 @@
         <v>10</v>
       </c>
       <c r="N174" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O174" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P174" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q174" s="5"/>
       <c r="R174" s="5"/>
@@ -9825,17 +9828,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -9860,7 +9863,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -9870,7 +9873,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/W01_館浜駅_UIList.xlsx
+++ b/exe/TSV/Excel/W01_館浜駅_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A6709A-0898-4944-BFE5-B6C1B53AA34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB10206-65B8-48BA-A5B7-97F344B32DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="4350" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="4815" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W01_館浜駅_UIList" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>配置する画像の種類を選択</t>
@@ -46,6 +47,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>シート内で重複しない名称を指定</t>
@@ -59,6 +61,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>サーバー側名称（未記入で良い）</t>
@@ -72,6 +75,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>親となる画像がある場合に指定
@@ -87,6 +91,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">制御条件に含む転てつ器名称（省略可）
@@ -101,6 +106,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>制御条件に含む転てつ器の定位・反位（省略可）
@@ -115,6 +121,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>X座標（幅方向）を指定する</t>
@@ -128,6 +135,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Y座標（高さ方向）を指定する</t>
@@ -141,6 +149,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>画像の幅を指定（省略可）
@@ -155,6 +164,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>画像の高さを指定（省略可）
@@ -169,6 +179,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>画像の回転角度を指定する（省略可）</t>
@@ -182,6 +193,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>回転させる中心点を指定する
@@ -196,6 +208,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>回転させる中心点を指定する
@@ -210,6 +223,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>表示したい文字列を指定
@@ -227,6 +241,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>表示したい文字列のサイズを指定
@@ -244,6 +259,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>背景色を指定
@@ -261,6 +277,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>文字色を指定
@@ -278,6 +295,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>マウスクリック動作を行う場合に設定
@@ -292,6 +310,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Base画像以外の差分用数値（カンマ区切り）
@@ -324,9 +343,10 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>ImagePattenの中からデフォルトで表示する画像番号を指定</t>
+          <t>ImagePattenの中から表示する画像番号を指定</t>
         </r>
       </text>
     </comment>
@@ -337,6 +357,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>読み込むBase画像の相対パスを記入
@@ -366,6 +387,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>読み込む画像の相対パスを記入
@@ -398,6 +420,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>備考欄
@@ -410,7 +433,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="261">
   <si>
     <t>Type</t>
   </si>
@@ -469,7 +492,7 @@
     <t>ImagePattern</t>
   </si>
   <si>
-    <t>DefaultImage</t>
+    <t>ImageIndex</t>
   </si>
   <si>
     <t>BaseImagePath</t>
@@ -1054,149 +1077,154 @@
     <t>列番1番線</t>
   </si>
   <si>
+    <t>列番2番線</t>
+  </si>
+  <si>
+    <t>列番3番線</t>
+  </si>
+  <si>
+    <t>列番4番線</t>
+  </si>
+  <si>
+    <t>列番下り第1接近</t>
+  </si>
+  <si>
+    <t>列番下り第2接近</t>
+  </si>
+  <si>
+    <t>列番駒野第1接近</t>
+  </si>
+  <si>
+    <t>列番駒野3番線</t>
+  </si>
+  <si>
+    <t>列番駒野5番線</t>
+  </si>
+  <si>
+    <t>列番駒野6番線</t>
+  </si>
+  <si>
+    <t>鎖錠30秒</t>
+  </si>
+  <si>
+    <t>Image/Light/N.png,Image/Light/R.png</t>
+  </si>
+  <si>
+    <t>鎖錠・停電・故障はR灯</t>
+  </si>
+  <si>
+    <t>鎖錠60秒</t>
+  </si>
+  <si>
+    <t>停電</t>
+  </si>
+  <si>
+    <t>CTC故障灯</t>
+  </si>
+  <si>
+    <t>TextBlock</t>
+  </si>
+  <si>
+    <t>Label_1R</t>
+  </si>
+  <si>
+    <t>Transparent</t>
+  </si>
+  <si>
+    <t>#FFBCBCBC</t>
+  </si>
+  <si>
+    <t>Label_2R</t>
+  </si>
+  <si>
+    <t>Label_3R</t>
+  </si>
+  <si>
+    <t>Label_4R</t>
+  </si>
+  <si>
+    <t>Label_5L</t>
+  </si>
+  <si>
+    <t>Label_A</t>
+  </si>
+  <si>
+    <t>Label_B</t>
+  </si>
+  <si>
+    <t>Label_C</t>
+  </si>
+  <si>
+    <t>Label_D</t>
+  </si>
+  <si>
+    <t>Label_S</t>
+  </si>
+  <si>
+    <t>Label_P21</t>
+  </si>
+  <si>
+    <t>Label_P22</t>
+  </si>
+  <si>
+    <t>Label_P23</t>
+  </si>
+  <si>
+    <t>Label_P24</t>
+  </si>
+  <si>
+    <t>Label_P25</t>
+  </si>
+  <si>
+    <t>Label_P26</t>
+  </si>
+  <si>
+    <t>Label_P27</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>ArrSignal</t>
+  </si>
+  <si>
+    <t>DepSignal</t>
+  </si>
+  <si>
+    <t>SwitchSign</t>
+  </si>
+  <si>
+    <t>SwitchSignal</t>
+  </si>
+  <si>
+    <t>GuideSignal</t>
+  </si>
+  <si>
+    <t>AutoTeko</t>
+  </si>
+  <si>
+    <t>DirectionOpen</t>
+  </si>
+  <si>
+    <t>Image/Light/N.png,Image/Light/R.png</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>Image/Retsuban/Retsuban-Window.png</t>
-  </si>
-  <si>
-    <t>列番2番線</t>
-  </si>
-  <si>
-    <t>列番3番線</t>
-  </si>
-  <si>
-    <t>列番4番線</t>
-  </si>
-  <si>
-    <t>列番下り第1接近</t>
-  </si>
-  <si>
-    <t>列番下り第2接近</t>
-  </si>
-  <si>
-    <t>列番駒野第1接近</t>
-  </si>
-  <si>
-    <t>列番駒野3番線</t>
-  </si>
-  <si>
-    <t>列番駒野5番線</t>
-  </si>
-  <si>
-    <t>列番駒野6番線</t>
-  </si>
-  <si>
-    <t>鎖錠30秒</t>
-  </si>
-  <si>
-    <t>Image/Light/N.png,Image/Light/R.png</t>
-  </si>
-  <si>
-    <t>鎖錠・停電・故障はR灯</t>
-  </si>
-  <si>
-    <t>鎖錠60秒</t>
-  </si>
-  <si>
-    <t>停電</t>
-  </si>
-  <si>
-    <t>CTC故障灯</t>
-  </si>
-  <si>
-    <t>TextBlock</t>
-  </si>
-  <si>
-    <t>Label_1R</t>
-  </si>
-  <si>
-    <t>Transparent</t>
-  </si>
-  <si>
-    <t>#FFBCBCBC</t>
-  </si>
-  <si>
-    <t>Label_2R</t>
-  </si>
-  <si>
-    <t>Label_3R</t>
-  </si>
-  <si>
-    <t>Label_4R</t>
-  </si>
-  <si>
-    <t>Label_5L</t>
-  </si>
-  <si>
-    <t>Label_A</t>
-  </si>
-  <si>
-    <t>Label_B</t>
-  </si>
-  <si>
-    <t>Label_C</t>
-  </si>
-  <si>
-    <t>Label_D</t>
-  </si>
-  <si>
-    <t>Label_S</t>
-  </si>
-  <si>
-    <t>Label_P21</t>
-  </si>
-  <si>
-    <t>Label_P22</t>
-  </si>
-  <si>
-    <t>Label_P23</t>
-  </si>
-  <si>
-    <t>Label_P24</t>
-  </si>
-  <si>
-    <t>Label_P25</t>
-  </si>
-  <si>
-    <t>Label_P26</t>
-  </si>
-  <si>
-    <t>Label_P27</t>
-  </si>
-  <si>
-    <t>Button</t>
-  </si>
-  <si>
-    <t>Point</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>ArrSignal</t>
-  </si>
-  <si>
-    <t>DepSignal</t>
-  </si>
-  <si>
-    <t>SwitchSign</t>
-  </si>
-  <si>
-    <t>SwitchSignal</t>
-  </si>
-  <si>
-    <t>GuideSignal</t>
-  </si>
-  <si>
-    <t>AutoTeko</t>
-  </si>
-  <si>
-    <t>DirectionOpen</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1207,23 +1235,33 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -8465,7 +8503,7 @@
       <c r="T144" s="5"/>
       <c r="U144" s="6"/>
       <c r="V144" s="4" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="W144" s="4"/>
       <c r="X144" s="4"/>
@@ -8482,7 +8520,7 @@
         <v>212</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -8508,7 +8546,7 @@
       <c r="T145" s="5"/>
       <c r="U145" s="6"/>
       <c r="V145" s="4" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="W145" s="4"/>
       <c r="X145" s="4"/>
@@ -8525,7 +8563,7 @@
         <v>212</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -8551,7 +8589,7 @@
       <c r="T146" s="5"/>
       <c r="U146" s="6"/>
       <c r="V146" s="4" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="W146" s="4"/>
       <c r="X146" s="4"/>
@@ -8568,7 +8606,7 @@
         <v>212</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -8594,7 +8632,7 @@
       <c r="T147" s="5"/>
       <c r="U147" s="6"/>
       <c r="V147" s="4" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="W147" s="4"/>
       <c r="X147" s="4"/>
@@ -8611,7 +8649,7 @@
         <v>212</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -8637,7 +8675,7 @@
       <c r="T148" s="5"/>
       <c r="U148" s="6"/>
       <c r="V148" s="4" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="W148" s="4"/>
       <c r="X148" s="4"/>
@@ -8654,7 +8692,7 @@
         <v>212</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -8680,7 +8718,7 @@
       <c r="T149" s="5"/>
       <c r="U149" s="6"/>
       <c r="V149" s="4" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="W149" s="4"/>
       <c r="X149" s="4"/>
@@ -8697,7 +8735,7 @@
         <v>212</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -8723,7 +8761,7 @@
       <c r="T150" s="5"/>
       <c r="U150" s="6"/>
       <c r="V150" s="4" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="W150" s="4"/>
       <c r="X150" s="4"/>
@@ -8740,7 +8778,7 @@
         <v>212</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -8766,7 +8804,7 @@
       <c r="T151" s="5"/>
       <c r="U151" s="6"/>
       <c r="V151" s="4" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="W151" s="4"/>
       <c r="X151" s="4"/>
@@ -8783,7 +8821,7 @@
         <v>212</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -8809,7 +8847,7 @@
       <c r="T152" s="5"/>
       <c r="U152" s="6"/>
       <c r="V152" s="4" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="W152" s="4"/>
       <c r="X152" s="4"/>
@@ -8826,7 +8864,7 @@
         <v>212</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -8852,7 +8890,7 @@
       <c r="T153" s="5"/>
       <c r="U153" s="6"/>
       <c r="V153" s="4" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="W153" s="4"/>
       <c r="X153" s="4"/>
@@ -8869,7 +8907,7 @@
         <v>26</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -8899,10 +8937,10 @@
       </c>
       <c r="U154" s="6"/>
       <c r="V154" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="W154" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="W154" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="X154" s="4"/>
       <c r="Y154" s="4"/>
@@ -8918,7 +8956,7 @@
         <v>26</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -8948,7 +8986,7 @@
       </c>
       <c r="U155" s="6"/>
       <c r="V155" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W155" s="4"/>
       <c r="X155" s="4"/>
@@ -8965,7 +9003,7 @@
         <v>26</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -8995,7 +9033,7 @@
       </c>
       <c r="U156" s="6"/>
       <c r="V156" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W156" s="4"/>
       <c r="X156" s="4"/>
@@ -9012,7 +9050,7 @@
         <v>26</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -9042,7 +9080,7 @@
       </c>
       <c r="U157" s="6"/>
       <c r="V157" s="4" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="W157" s="4"/>
       <c r="X157" s="4"/>
@@ -9056,10 +9094,10 @@
     </row>
     <row r="158" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B158" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5" t="s">
@@ -9089,10 +9127,10 @@
         <v>10</v>
       </c>
       <c r="P158" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q158" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="Q158" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="R158" s="5" t="s">
         <v>36</v>
@@ -9113,10 +9151,10 @@
     </row>
     <row r="159" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5" t="s">
@@ -9146,10 +9184,10 @@
         <v>10</v>
       </c>
       <c r="P159" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q159" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="Q159" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="R159" s="5" t="s">
         <v>41</v>
@@ -9170,10 +9208,10 @@
     </row>
     <row r="160" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5" t="s">
@@ -9203,10 +9241,10 @@
         <v>10</v>
       </c>
       <c r="P160" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q160" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="Q160" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="R160" s="5" t="s">
         <v>42</v>
@@ -9227,10 +9265,10 @@
     </row>
     <row r="161" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5" t="s">
@@ -9260,10 +9298,10 @@
         <v>10</v>
       </c>
       <c r="P161" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q161" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="Q161" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="R161" s="5" t="s">
         <v>43</v>
@@ -9284,10 +9322,10 @@
     </row>
     <row r="162" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5" t="s">
@@ -9317,10 +9355,10 @@
         <v>10</v>
       </c>
       <c r="P162" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q162" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="Q162" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="R162" s="5" t="s">
         <v>44</v>
@@ -9341,10 +9379,10 @@
     </row>
     <row r="163" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5" t="s">
@@ -9374,10 +9412,10 @@
         <v>10</v>
       </c>
       <c r="P163" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q163" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="Q163" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="R163" s="5" t="s">
         <v>49</v>
@@ -9398,10 +9436,10 @@
     </row>
     <row r="164" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5" t="s">
@@ -9431,10 +9469,10 @@
         <v>10</v>
       </c>
       <c r="P164" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q164" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="Q164" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="R164" s="5" t="s">
         <v>52</v>
@@ -9455,10 +9493,10 @@
     </row>
     <row r="165" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5" t="s">
@@ -9488,10 +9526,10 @@
         <v>10</v>
       </c>
       <c r="P165" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q165" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="Q165" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="R165" s="5" t="s">
         <v>53</v>
@@ -9512,10 +9550,10 @@
     </row>
     <row r="166" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5" t="s">
@@ -9545,10 +9583,10 @@
         <v>10</v>
       </c>
       <c r="P166" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q166" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="Q166" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="R166" s="5" t="s">
         <v>54</v>
@@ -9569,10 +9607,10 @@
     </row>
     <row r="167" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5" t="s">
@@ -9602,10 +9640,10 @@
         <v>10</v>
       </c>
       <c r="P167" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q167" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="Q167" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="R167" s="5" t="s">
         <v>55</v>
@@ -9626,10 +9664,10 @@
     </row>
     <row r="168" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="10" t="s">
@@ -9659,10 +9697,10 @@
         <v>10</v>
       </c>
       <c r="P168" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q168" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="Q168" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="R168" s="10" t="s">
         <v>63</v>
@@ -9683,10 +9721,10 @@
     </row>
     <row r="169" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="10" t="s">
@@ -9716,10 +9754,10 @@
         <v>10</v>
       </c>
       <c r="P169" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q169" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="Q169" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="R169" s="10" t="s">
         <v>72</v>
@@ -9740,10 +9778,10 @@
     </row>
     <row r="170" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="10" t="s">
@@ -9773,10 +9811,10 @@
         <v>10</v>
       </c>
       <c r="P170" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q170" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="Q170" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="R170" s="10" t="s">
         <v>75</v>
@@ -9797,10 +9835,10 @@
     </row>
     <row r="171" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="10" t="s">
@@ -9830,10 +9868,10 @@
         <v>10</v>
       </c>
       <c r="P171" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q171" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="Q171" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="R171" s="10" t="s">
         <v>78</v>
@@ -9854,10 +9892,10 @@
     </row>
     <row r="172" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="10" t="s">
@@ -9887,10 +9925,10 @@
         <v>10</v>
       </c>
       <c r="P172" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q172" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="Q172" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="R172" s="10" t="s">
         <v>81</v>
@@ -9911,10 +9949,10 @@
     </row>
     <row r="173" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="10" t="s">
@@ -9944,10 +9982,10 @@
         <v>10</v>
       </c>
       <c r="P173" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q173" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="Q173" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="R173" s="10" t="s">
         <v>84</v>
@@ -9968,10 +10006,10 @@
     </row>
     <row r="174" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="10" t="s">
@@ -10001,10 +10039,10 @@
         <v>10</v>
       </c>
       <c r="P174" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q174" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="Q174" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="R174" s="10" t="s">
         <v>87</v>
@@ -10253,26 +10291,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>250</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -10280,7 +10318,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -10288,7 +10326,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -10296,7 +10334,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -10304,7 +10342,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -10312,7 +10350,7 @@
         <v>90</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
